--- a/database_opposit.xlsx
+++ b/database_opposit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="226">
   <si>
     <t>相克食材</t>
   </si>
@@ -597,6 +597,102 @@
   </si>
   <si>
     <t>It is strictly forbidden to eat with oranges, otherwise you are susceptible to goitre.</t>
+  </si>
+  <si>
+    <t>milk;spinach</t>
+  </si>
+  <si>
+    <t>Eating at the same time is easy for diarrhea.</t>
+  </si>
+  <si>
+    <t>milk;orange</t>
+  </si>
+  <si>
+    <t>Eating oranges just after drinking milk will affect digestion and absorption, and will also make people bloated, abdominal pain, and diarrhea. The protein contained in milk will coagulate when it encounters the fruit acid of orange, which affects the digestion and absorption of protein.</t>
+  </si>
+  <si>
+    <t>cheese;spinach</t>
+  </si>
+  <si>
+    <t>Spinach contains a lot of calcium, and the composition of cheese will affect the absorption of calcium and reduce the nutritional value.</t>
+  </si>
+  <si>
+    <t>milk;ketchup</t>
+  </si>
+  <si>
+    <t>Easily reduce the absorption rate of nutrients.</t>
+  </si>
+  <si>
+    <t>chocolate;sesame</t>
+  </si>
+  <si>
+    <t>Eating chocolate and sesame together may cause intestinal discomfort, which is detrimental to the digestion and absorption of the human stomach.</t>
+  </si>
+  <si>
+    <t>yogurt;soybean</t>
+  </si>
+  <si>
+    <t>Yogurt is rich in calcium, and the chemical components contained in soybeans may affect the digestion and absorption of calcium.</t>
+  </si>
+  <si>
+    <t>milk;vinegar</t>
+  </si>
+  <si>
+    <t>Vinegar contains acetic acid and various organic acids, and milk is a colloidal mixture, which may cause coagulation and precipitation when eaten together, which can easily cause indigestion or diarrhea.</t>
+  </si>
+  <si>
+    <t>oat;spinach</t>
+  </si>
+  <si>
+    <t>Oatmeal is rich in calcium, while spinach is rich in oxalic acid. Eating the two together will form calcium oxalate that is not easily absorbed by the human body. Long-term consumption will easily affect the absorption of calcium by the human body.</t>
+  </si>
+  <si>
+    <t>orange;spinach</t>
+  </si>
+  <si>
+    <t>May cause abdominal pain, nausea and other symptoms</t>
+  </si>
+  <si>
+    <t>milk;coliflor</t>
+  </si>
+  <si>
+    <t>Milk is rich in calcium, and the chemical components contained in coliflor can easily affect the absorption of calcium.</t>
+  </si>
+  <si>
+    <t>cream;spinach</t>
+  </si>
+  <si>
+    <t>Cream contains calcium, and the oxalic acid contained in spinach easily affects the absorption of calcium.</t>
+  </si>
+  <si>
+    <t>black rice;egg</t>
+  </si>
+  <si>
+    <t>It is best not to eat black rice with eggs, which may affect the absorption of nutrients.</t>
+  </si>
+  <si>
+    <t>milk;barley</t>
+  </si>
+  <si>
+    <t>The protein in milk can form end-products of glycation with the sugars in barley at high temperature, which may be harmful to the human body.</t>
+  </si>
+  <si>
+    <t>chili;cucumber</t>
+  </si>
+  <si>
+    <t>Chili are rich in vitamin C, and cucumbers contain vitamin C decomposing enzymes. If the two are eaten together, the vitamin C in chili is easily destroyed and the nutritional value will be reduced.</t>
+  </si>
+  <si>
+    <t>chili;carrot</t>
+  </si>
+  <si>
+    <t>Chili are rich in vitamin C, and carrot contain vitamin C decomposing enzymes. If the two are eaten together, the vitamin C in chili is easily destroyed and the nutritional value will be reduced.</t>
+  </si>
+  <si>
+    <t>Pickled and salted product;tomato</t>
+  </si>
+  <si>
+    <t>Eating together can easily cause stomach pain, stomach acid, diarrhea, vomiting and other phenomena.</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1251,6 +1347,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1571,10 +1670,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B114" sqref="B114:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2488,6 +2587,134 @@
         <v>193</v>
       </c>
     </row>
+    <row r="114" ht="27" spans="1:2">
+      <c r="A114" t="s">
+        <v>194</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" ht="121.5" spans="1:2">
+      <c r="A115" t="s">
+        <v>196</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" ht="54" spans="1:2">
+      <c r="A116" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="117" ht="27" spans="1:2">
+      <c r="A117" t="s">
+        <v>200</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" ht="54" spans="1:2">
+      <c r="A118" t="s">
+        <v>202</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="119" ht="54" spans="1:2">
+      <c r="A119" t="s">
+        <v>204</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" ht="81" spans="1:2">
+      <c r="A120" t="s">
+        <v>206</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="121" ht="108" spans="1:2">
+      <c r="A121" t="s">
+        <v>208</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="122" ht="27" spans="1:2">
+      <c r="A122" t="s">
+        <v>210</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="123" ht="54" spans="1:2">
+      <c r="A123" t="s">
+        <v>212</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="124" ht="54" spans="1:2">
+      <c r="A124" t="s">
+        <v>214</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="125" ht="40.5" spans="1:2">
+      <c r="A125" t="s">
+        <v>216</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="126" ht="54" spans="1:2">
+      <c r="A126" t="s">
+        <v>218</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="127" ht="81" spans="1:2">
+      <c r="A127" t="s">
+        <v>220</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="128" ht="81" spans="1:2">
+      <c r="A128" t="s">
+        <v>222</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="129" ht="40.5" spans="1:2">
+      <c r="A129" t="s">
+        <v>224</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
